--- a/ocms/src/test/resources/DownloadedFiles/Operating Hours (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Operating Hours (1).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="55">
   <si>
     <t xml:space="preserve">Skill/VDN</t>
   </si>
@@ -58,52 +58,55 @@
     <t xml:space="preserve">17/10/2019 14:42:57</t>
   </si>
   <si>
+    <t xml:space="preserve">12121221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:01:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/11/2019 10:46:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">571899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:06:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QATETHERFI\Administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/07/2021 16:39:12</t>
+  </si>
+  <si>
     <t xml:space="preserve">13728</t>
   </si>
   <si>
-    <t xml:space="preserve">00:00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">00:02:06</t>
   </si>
   <si>
-    <t xml:space="preserve">QATETHERFI\Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/07/2021 12:20:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12121221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:01:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/11/2019 10:46:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">571899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02:06:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21/07/2021 16:39:12</t>
+    <t xml:space="preserve">qatetherfi\administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/08/2021 20:40:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mon</t>
   </si>
   <si>
     <t xml:space="preserve">99801</t>
   </si>
   <si>
-    <t xml:space="preserve">Mon</t>
-  </si>
-  <si>
     <t xml:space="preserve">00:00:06</t>
   </si>
   <si>
     <t xml:space="preserve">00:06:03</t>
   </si>
   <si>
-    <t xml:space="preserve">30/07/2021 12:24:44</t>
+    <t xml:space="preserve">10/08/2021 20:44:06</t>
   </si>
   <si>
     <t xml:space="preserve">2341</t>
@@ -323,33 +326,33 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>20</v>
@@ -366,131 +369,131 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25">
@@ -501,19 +504,19 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25">
@@ -524,157 +527,157 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25">
@@ -685,65 +688,65 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25">
@@ -754,19 +757,19 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" x14ac:dyDescent="0.25">
@@ -777,88 +780,88 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
         <v>49</v>
       </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
